--- a/biology/Zoologie/Blageon/Blageon.xlsx
+++ b/biology/Zoologie/Blageon/Blageon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Telestes souffia
 Le Blageon (Telestes souffia) est une espèce de poissons actinoptérygiens du genre Telestes (en) et de la famille des Cyprinidés qui vit dans les eaux douces d'Europe.
@@ -515,7 +527,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Encore récemment classé dans le genre Leuciscus, le blageon était connu sous le nom de Leuciscus souffia, jusqu'à ce que des études récentes trouvent de sensibles différences sur le plan génétique entre le blageon et les vandoises du genre Leuciscus, à tel point que le blageon et des espèces apparentés sont maintenant classés dans un nouveau genre : Telestes.
 Autrefois, la population du Danube était considérée comme une espèce différente appelée Telestes rysela mais par la suite, les scientifiques considèrent qu'il n'y pas de sensible différence pour le différencier de Telestes souffia, présent surtout dans le Rhône.
@@ -552,7 +566,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson un peu plus coloré que la plupart des cyprinidés d'Europe.
 Ce petit cyprinidé possède un corps fuselé, subcylindrique, comprimé et mince : sa tête est assez courte, conique et arrondie, comprenant un museau arrondi et une petite bouche fendue en oblique.
@@ -591,7 +607,9 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson fréquente les eaux courantes et qui correspondent à la zone à ombre (classification de Huet), à la fois fraîches et claires des rivières et des torrents à fond de graviers où il réside en eau libre en profondeur.
 Il fréquente plus rarement les lacs.
@@ -626,7 +644,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La saison de ponte peut varier à avril, mai et juin (au moins une ponte à chaque saison), en fonction de la température, dans une eau dépassant 12 °C le plus souvent.
 Les spécimens adultes se dirigent vers les affluents d'un lac dans les zones à courant, peu profondes et dans des eaux claires, avec des fonds de gravier. Après la ponte déposée sous des pierres, composée de 3 000 à 8 000 œufs (relativement peu pour un poisson), de couleur jaune pâle et qui ont un diamètre de 1,3 mm, les adultes migrent vers l'aval.
@@ -661,7 +681,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La répartition du blageon s'étend en Europe de manière continue de l'est de la France jusqu'à la Bosnie-Herzégovine. Il est présent dans le bassin versant du Danube puis une autre population importante se situe entre le Nord de la Roumanie et le Sud-Ouest de l'Ukraine.
 Il est présent dans les pays suivants : Allemagne, Autriche, Bosnie-Herzégovine, Croatie, France, Hongrie, Italie, Liechtenstein, République tchèque, Roumanie, Slovaquie, Slovénie, Suisse et Ukraine.
@@ -695,7 +717,9 @@
           <t>Relations avec l'homme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le blageon est menacé surtout par la pollution des eaux et la multiplication des barrages hydrauliques limitant sa migration notamment pour la reproduction.
 Bien que l'espèce soit peu rencontrée, la liste rouge de l'UICN le classe en « préoccupation mineure » (LC) en raison de son assez large distribution, ne souffrant pas de grandes menaces généralisées et de ses effectifs stables.
@@ -731,7 +755,9 @@
           <t>Autres noms vernaculaires</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Autres noms français : blavin, seufe, sofie (terme prêtant à confusion avec le toxostome), soufie, rougette, vairon (à ne pas confondre avec le vairon commun)
 Nom anglais : souffia, western vairone, telestes
